--- a/_data_helperfiles/preparingtables.xlsx
+++ b/_data_helperfiles/preparingtables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6420" windowWidth="28800" windowHeight="6480" tabRatio="927" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="6420" windowWidth="28800" windowHeight="6480" tabRatio="927" firstSheet="10" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="struct_and_colors_sf16" sheetId="47" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="ex7_data" sheetId="35" r:id="rId23"/>
     <sheet name="ex7_plotdetails" sheetId="36" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2713,12 +2713,14 @@
   </sheetPr>
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -2744,10 +2746,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="54" t="s">
         <v>67</v>
       </c>
       <c r="C1" t="s">
@@ -2824,11 +2826,11 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="54">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
-        <v>1</v>
+      <c r="B2" s="54">
+        <v>2017</v>
       </c>
       <c r="C2" s="15">
         <v>230</v>
@@ -2917,7 +2919,7 @@
   <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AO12" sqref="AO12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4202,14 +4204,14 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -4227,7 +4229,7 @@
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="54" t="s">
         <v>67</v>
       </c>
       <c r="C1" t="s">
@@ -4268,7 +4270,7 @@
       <c r="A2" s="19">
         <v>2</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="54">
         <v>2016</v>
       </c>
       <c r="C2" s="15">
@@ -4309,7 +4311,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="54">
         <v>2015</v>
       </c>
       <c r="C3">
@@ -4348,7 +4350,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="54">
         <v>2017</v>
       </c>
       <c r="C4">
@@ -4448,7 +4450,7 @@
   <dimension ref="A1:AT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AV30" sqref="AV30"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6594,12 +6596,12 @@
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="3.7109375" style="54" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
@@ -6627,13 +6629,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="60" t="s">
         <v>67</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -6789,10 +6791,10 @@
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="54">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="54">
         <v>1</v>
       </c>
       <c r="D2">
@@ -7917,7 +7919,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8271,15 +8273,15 @@
   </sheetPr>
   <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="54" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="22" bestFit="1" customWidth="1"/>
@@ -8317,7 +8319,7 @@
       <c r="B1" t="s">
         <v>165</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="54" t="s">
         <v>166</v>
       </c>
       <c r="D1" t="s">
@@ -8458,8 +8460,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="C2" s="54">
+        <v>2017</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -8608,8 +8610,8 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>6</v>
+      <c r="C3" s="54">
+        <v>2022</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9298,14 +9300,16 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="54" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="9" customWidth="1"/>
     <col min="6" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" style="9" customWidth="1"/>
@@ -9322,7 +9326,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="54" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
@@ -9331,7 +9335,7 @@
       <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="54" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -9405,22 +9409,19 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="54">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
-        <v>1</v>
+      <c r="B2" s="54">
+        <v>2016</v>
       </c>
       <c r="C2" s="15">
         <v>230</v>
       </c>
-      <c r="D2" s="15"/>
       <c r="E2" s="14">
-        <f>SUM(F2:H2)</f>
         <v>23</v>
       </c>
       <c r="F2" s="15">
-        <f>SUM(I2:L2)</f>
         <v>28</v>
       </c>
       <c r="G2" s="15">
@@ -9433,11 +9434,9 @@
         <v>-9</v>
       </c>
       <c r="J2" s="15">
-        <f>SUM(M2:S2)</f>
         <v>17</v>
       </c>
       <c r="K2" s="14">
-        <f t="shared" ref="K2:K11" si="0">SUM(T2:AA2)</f>
         <v>15</v>
       </c>
       <c r="L2" s="91">
@@ -9491,964 +9490,757 @@
       <c r="AB2" s="15"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15">
-        <v>2</v>
+      <c r="A3" s="54">
+        <v>2</v>
+      </c>
+      <c r="B3" s="54">
+        <v>2017</v>
       </c>
       <c r="C3" s="15">
-        <f>+C2+4</f>
-        <v>234</v>
-      </c>
-      <c r="D3" s="15">
+        <v>233</v>
+      </c>
+      <c r="D3" s="54">
         <v>1</v>
       </c>
       <c r="E3" s="14">
-        <f t="shared" ref="E3:E11" ca="1" si="1">SUM(F3:H3)</f>
         <v>23.149926526465208</v>
       </c>
       <c r="F3" s="15">
-        <f ca="1">SUM(I3:L3)</f>
         <v>27.30838407992562</v>
       </c>
       <c r="G3" s="15">
         <v>5</v>
       </c>
       <c r="H3" s="94">
-        <f ca="1">+H$2*(_xlfn.NORM.INV(RAND(),1,0.07)*_xlfn.SUM(I3:O3)/_xlfn.SUM(I$2:O$2))</f>
         <v>-9.1584575534604067</v>
       </c>
       <c r="I3" s="89">
-        <f ca="1">+I$2*(_xlfn.NORM.INV(RAND(),1,0.07)*_xlfn.SUM(J3:P3)/_xlfn.SUM(J$2:P$2))</f>
         <v>-9.135998394490505</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J11" ca="1" si="2">SUM(M3:S3)</f>
         <v>17.642394436184492</v>
       </c>
       <c r="K3" s="14">
-        <f t="shared" ca="1" si="0"/>
         <v>14.141988038231634</v>
       </c>
       <c r="L3" s="93">
-        <f t="shared" ref="L3:AA11" ca="1" si="3">ROUND(_xlfn.NORM.INV(RAND(),L$2,0.2*ABS(L$2)),2)</f>
         <v>4.66</v>
       </c>
       <c r="M3" s="89">
-        <f ca="1">+M$2*(_xlfn.NORM.INV(RAND(),1,0.07)*_xlfn.SUM(N3:T3)/_xlfn.SUM(N$2:T$2))</f>
         <v>-23.977605563815505</v>
       </c>
       <c r="N3" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>7.22</v>
       </c>
       <c r="O3" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>9.44</v>
       </c>
       <c r="P3" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>9.02</v>
       </c>
       <c r="Q3" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>5.14</v>
       </c>
       <c r="R3" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>5.73</v>
       </c>
       <c r="S3" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>5.07</v>
       </c>
       <c r="T3" s="89">
-        <f ca="1">+T$2*(_xlfn.NORM.INV(RAND(),1,0.07)*_xlfn.SUM(U3:AA3)/_xlfn.SUM(U$2:AA$2))</f>
         <v>-3.8780119617683675</v>
       </c>
       <c r="U3" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>1.31</v>
       </c>
       <c r="V3" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>1.99</v>
       </c>
       <c r="W3" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>3.16</v>
       </c>
       <c r="X3" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>3.8</v>
       </c>
       <c r="Y3" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.96</v>
       </c>
       <c r="Z3" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.89</v>
       </c>
       <c r="AA3" s="93">
-        <f ca="1">ROUND(_xlfn.NORM.INV(RAND(),AA$2,0.2*ABS(AA$2)),2)</f>
         <v>1.91</v>
       </c>
       <c r="AB3" s="15"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="54">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
-        <v>3</v>
+      <c r="B4" s="54">
+        <v>2018</v>
       </c>
       <c r="C4" s="15">
-        <f>+C3+4</f>
         <v>238</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="54">
         <v>2</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" ca="1" si="1"/>
         <v>19.994608624208404</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:F11" ca="1" si="4">ROUND(_xlfn.NORM.INV(RAND(),F$2,0.2*ABS(F$2)),2)</f>
         <v>24.43</v>
       </c>
       <c r="G4" s="15">
         <v>5</v>
       </c>
       <c r="H4" s="94">
-        <f t="shared" ref="H4:H11" ca="1" si="5">+H$2*(_xlfn.NORM.INV(RAND(),1,0.07)*_xlfn.SUM(I4:O4)/_xlfn.SUM(I$2:O$2))</f>
         <v>-9.4353913757915944</v>
       </c>
       <c r="I4" s="89">
-        <f t="shared" ref="I4:I11" ca="1" si="6">+I$2*(_xlfn.NORM.INV(RAND(),1,0.07)*_xlfn.SUM(J4:P4)/_xlfn.SUM(J$2:P$2))</f>
         <v>-8.4025517451142502</v>
       </c>
       <c r="J4" s="15">
-        <f t="shared" ca="1" si="2"/>
         <v>14.56599732352014</v>
       </c>
       <c r="K4" s="14">
-        <f t="shared" ca="1" si="0"/>
         <v>15.777296867732911</v>
       </c>
       <c r="L4" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>4.1100000000000003</v>
       </c>
       <c r="M4" s="89">
-        <f t="shared" ref="M4:M11" ca="1" si="7">+M$2*(_xlfn.NORM.INV(RAND(),1,0.07)*_xlfn.SUM(N4:T4)/_xlfn.SUM(N$2:T$2))</f>
         <v>-16.104002676479858</v>
       </c>
       <c r="N4" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>6.63</v>
       </c>
       <c r="O4" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>4.08</v>
       </c>
       <c r="P4" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>6.71</v>
       </c>
       <c r="Q4" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>4.7699999999999996</v>
       </c>
       <c r="R4" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>3.93</v>
       </c>
       <c r="S4" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>4.55</v>
       </c>
       <c r="T4" s="89">
-        <f t="shared" ref="T4:T11" ca="1" si="8">+T$2*(_xlfn.NORM.INV(RAND(),1,0.07)*_xlfn.SUM(U4:AA4)/_xlfn.SUM(U$2:AA$2))</f>
         <v>-4.6127031322670877</v>
       </c>
       <c r="U4" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>1.27</v>
       </c>
       <c r="V4" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.1</v>
       </c>
       <c r="W4" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>3.14</v>
       </c>
       <c r="X4" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>6.03</v>
       </c>
       <c r="Y4" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>3.86</v>
       </c>
       <c r="Z4" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>1.94</v>
       </c>
       <c r="AA4" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="AB4" s="15"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="54">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
-        <v>4</v>
+      <c r="B5" s="54">
+        <v>2019</v>
       </c>
       <c r="C5" s="15">
-        <f>+C4+4</f>
-        <v>242</v>
-      </c>
-      <c r="D5" s="15">
+        <v>243</v>
+      </c>
+      <c r="D5" s="54">
         <v>3</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ca="1" si="1"/>
         <v>15.617731354988567</v>
       </c>
       <c r="F5" s="15">
-        <f t="shared" ca="1" si="4"/>
         <v>20.350000000000001</v>
       </c>
       <c r="G5" s="15">
         <v>5</v>
       </c>
       <c r="H5" s="94">
-        <f t="shared" ca="1" si="5"/>
         <v>-9.732268645011434</v>
       </c>
       <c r="I5" s="89">
-        <f t="shared" ca="1" si="6"/>
         <v>-7.8425117121816248</v>
       </c>
       <c r="J5" s="15">
-        <f t="shared" ca="1" si="2"/>
         <v>15.36936857962877</v>
       </c>
       <c r="K5" s="14">
-        <f t="shared" ca="1" si="0"/>
         <v>12.809102493057965</v>
       </c>
       <c r="L5" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>5.43</v>
       </c>
       <c r="M5" s="89">
-        <f t="shared" ca="1" si="7"/>
         <v>-20.090631420371231</v>
       </c>
       <c r="N5" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>8.39</v>
       </c>
       <c r="O5" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>6.29</v>
       </c>
       <c r="P5" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>5.5</v>
       </c>
       <c r="Q5" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>6.61</v>
       </c>
       <c r="R5" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>3.19</v>
       </c>
       <c r="S5" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>5.48</v>
       </c>
       <c r="T5" s="89">
-        <f t="shared" ca="1" si="8"/>
         <v>-3.0008975069420347</v>
       </c>
       <c r="U5" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>1.04</v>
       </c>
       <c r="V5" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.04</v>
       </c>
       <c r="W5" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.93</v>
       </c>
       <c r="X5" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>3.84</v>
       </c>
       <c r="Y5" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.34</v>
       </c>
       <c r="Z5" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.11</v>
       </c>
       <c r="AA5" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>1.51</v>
       </c>
       <c r="AB5" s="15"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="54">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
-        <v>2</v>
+      <c r="B6" s="54">
+        <v>2017</v>
       </c>
       <c r="C6" s="15">
-        <f>+C2+1</f>
         <v>231</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="54">
         <v>1</v>
       </c>
       <c r="E6" s="14">
-        <f t="shared" ca="1" si="1"/>
         <v>19.605995252091482</v>
       </c>
       <c r="F6" s="15">
-        <f t="shared" ca="1" si="4"/>
         <v>21.29</v>
       </c>
       <c r="G6" s="15">
         <v>5</v>
       </c>
       <c r="H6" s="94">
-        <f t="shared" ca="1" si="5"/>
         <v>-6.684004747908519</v>
       </c>
       <c r="I6" s="89">
-        <f t="shared" ca="1" si="6"/>
         <v>-7.1846296545002639</v>
       </c>
       <c r="J6" s="15">
-        <f t="shared" ca="1" si="2"/>
         <v>15.419348782659444</v>
       </c>
       <c r="K6" s="14">
-        <f t="shared" ca="1" si="0"/>
         <v>13.183172314248182</v>
       </c>
       <c r="L6" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>4.2699999999999996</v>
       </c>
       <c r="M6" s="89">
-        <f t="shared" ca="1" si="7"/>
         <v>-21.750651217340554</v>
       </c>
       <c r="N6" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>7.18</v>
       </c>
       <c r="O6" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>5.42</v>
       </c>
       <c r="P6" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>5.8</v>
       </c>
       <c r="Q6" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>7.43</v>
       </c>
       <c r="R6" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>4.88</v>
       </c>
       <c r="S6" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>6.46</v>
       </c>
       <c r="T6" s="89">
-        <f t="shared" ca="1" si="8"/>
         <v>-3.686827685751819</v>
       </c>
       <c r="U6" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="V6" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.21</v>
       </c>
       <c r="W6" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.97</v>
       </c>
       <c r="X6" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>4.6900000000000004</v>
       </c>
       <c r="Y6" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.69</v>
       </c>
       <c r="Z6" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.39</v>
       </c>
       <c r="AA6" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>1.37</v>
       </c>
       <c r="AB6" s="15"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="54">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
-        <v>3</v>
+      <c r="B7" s="54">
+        <v>2018</v>
       </c>
       <c r="C7" s="15">
-        <f>+C6+1</f>
         <v>232</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="54">
         <v>5</v>
       </c>
       <c r="E7" s="14">
-        <f t="shared" ca="1" si="1"/>
         <v>25.743364281293623</v>
       </c>
       <c r="F7" s="15">
-        <f t="shared" ca="1" si="4"/>
         <v>33.19</v>
       </c>
       <c r="G7" s="15">
         <v>5</v>
       </c>
       <c r="H7" s="94">
-        <f t="shared" ca="1" si="5"/>
         <v>-12.446635718706373</v>
       </c>
       <c r="I7" s="89">
-        <f t="shared" ca="1" si="6"/>
         <v>-10.961722332108064</v>
       </c>
       <c r="J7" s="15">
-        <f t="shared" ca="1" si="2"/>
         <v>21.584614925105491</v>
       </c>
       <c r="K7" s="14">
-        <f t="shared" ca="1" si="0"/>
         <v>17.296834075442753</v>
       </c>
       <c r="L7" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>5.99</v>
       </c>
       <c r="M7" s="89">
-        <f t="shared" ca="1" si="7"/>
         <v>-21.365385074894508</v>
       </c>
       <c r="N7" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>8.85</v>
       </c>
       <c r="O7" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>7.75</v>
       </c>
       <c r="P7" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>7.26</v>
       </c>
       <c r="Q7" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>8.32</v>
       </c>
       <c r="R7" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>4.72</v>
       </c>
       <c r="S7" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>6.05</v>
       </c>
       <c r="T7" s="89">
-        <f t="shared" ca="1" si="8"/>
         <v>-4.4831659245572482</v>
       </c>
       <c r="U7" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="V7" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.72</v>
       </c>
       <c r="W7" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.78</v>
       </c>
       <c r="X7" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>6.1</v>
       </c>
       <c r="Y7" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>4.32</v>
       </c>
       <c r="Z7" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.64</v>
       </c>
       <c r="AA7" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>2.06</v>
       </c>
       <c r="AB7" s="15"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="54">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
-        <v>4</v>
+      <c r="B8" s="54">
+        <v>2019</v>
       </c>
       <c r="C8" s="15">
-        <f>+C7+1</f>
-        <v>233</v>
-      </c>
-      <c r="D8" s="15">
+        <v>232</v>
+      </c>
+      <c r="D8" s="54">
         <v>6</v>
       </c>
       <c r="E8" s="14">
-        <f t="shared" ca="1" si="1"/>
         <v>21.913415697015374</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" ca="1" si="4"/>
         <v>29.57</v>
       </c>
       <c r="G8" s="15">
         <v>5</v>
       </c>
       <c r="H8" s="94">
-        <f t="shared" ca="1" si="5"/>
         <v>-12.656584302984626</v>
       </c>
       <c r="I8" s="89">
-        <f t="shared" ca="1" si="6"/>
         <v>-9.2254163529275104</v>
       </c>
       <c r="J8" s="15">
-        <f t="shared" ca="1" si="2"/>
         <v>17.265390727836206</v>
       </c>
       <c r="K8" s="14">
-        <f t="shared" ca="1" si="0"/>
         <v>15.665464971097743</v>
       </c>
       <c r="L8" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>4.63</v>
       </c>
       <c r="M8" s="89">
-        <f t="shared" ca="1" si="7"/>
         <v>-13.794609272163791</v>
       </c>
       <c r="N8" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>5.57</v>
       </c>
       <c r="O8" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>5.43</v>
       </c>
       <c r="P8" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>5.71</v>
       </c>
       <c r="Q8" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>5.91</v>
       </c>
       <c r="R8" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>3.43</v>
       </c>
       <c r="S8" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>5.01</v>
       </c>
       <c r="T8" s="89">
-        <f t="shared" ca="1" si="8"/>
         <v>-4.2445350289022565</v>
       </c>
       <c r="U8" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="V8" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.4500000000000002</v>
       </c>
       <c r="W8" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.33</v>
       </c>
       <c r="X8" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>6.21</v>
       </c>
       <c r="Y8" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="Z8" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="AA8" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>1.66</v>
       </c>
       <c r="AB8" s="15"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="54">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
-        <v>2</v>
+      <c r="B9" s="54">
+        <v>2017</v>
       </c>
       <c r="C9" s="15">
-        <f>+C2-3</f>
         <v>227</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="54">
         <v>1</v>
       </c>
       <c r="E9" s="14">
-        <f t="shared" ca="1" si="1"/>
         <v>25.081685961650784</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" ca="1" si="4"/>
         <v>32.78</v>
       </c>
       <c r="G9" s="15">
         <v>5</v>
       </c>
       <c r="H9" s="94">
-        <f t="shared" ca="1" si="5"/>
         <v>-12.698314038349217</v>
       </c>
       <c r="I9" s="89">
-        <f t="shared" ca="1" si="6"/>
         <v>-9.2385032386626769</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" ca="1" si="2"/>
         <v>17.411609623645667</v>
       </c>
       <c r="K9" s="14">
-        <f t="shared" ca="1" si="0"/>
         <v>16.977486966021871</v>
       </c>
       <c r="L9" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>4.88</v>
       </c>
       <c r="M9" s="89">
-        <f t="shared" ca="1" si="7"/>
         <v>-14.918390376354331</v>
       </c>
       <c r="N9" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
       <c r="O9" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>5.5</v>
       </c>
       <c r="P9" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>5.9</v>
       </c>
       <c r="Q9" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>4.0599999999999996</v>
       </c>
       <c r="R9" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>3.67</v>
       </c>
       <c r="S9" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>6.2</v>
       </c>
       <c r="T9" s="89">
-        <f t="shared" ca="1" si="8"/>
         <v>-4.412513033978132</v>
       </c>
       <c r="U9" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>1.07</v>
       </c>
       <c r="V9" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.34</v>
       </c>
       <c r="W9" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>3.41</v>
       </c>
       <c r="X9" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>4.7300000000000004</v>
       </c>
       <c r="Y9" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>5.85</v>
       </c>
       <c r="Z9" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="AA9" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>1.44</v>
       </c>
       <c r="AB9" s="15"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="54">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
-        <v>3</v>
+      <c r="B10" s="54">
+        <v>2018</v>
       </c>
       <c r="C10" s="15">
-        <f>+C9-2</f>
         <v>225</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="54">
         <v>8</v>
       </c>
       <c r="E10" s="14">
-        <f t="shared" ca="1" si="1"/>
         <v>22.430680753340773</v>
       </c>
       <c r="F10" s="15">
-        <f t="shared" ca="1" si="4"/>
         <v>26.28</v>
       </c>
       <c r="G10" s="15">
         <v>5</v>
       </c>
       <c r="H10" s="94">
-        <f t="shared" ca="1" si="5"/>
         <v>-8.8493192466592259</v>
       </c>
       <c r="I10" s="89">
-        <f t="shared" ca="1" si="6"/>
         <v>-9.3781450307394909</v>
       </c>
       <c r="J10" s="15">
-        <f t="shared" ca="1" si="2"/>
         <v>17.666611487669044</v>
       </c>
       <c r="K10" s="14">
-        <f t="shared" ca="1" si="0"/>
         <v>17.874622948386648</v>
       </c>
       <c r="L10" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>3.46</v>
       </c>
       <c r="M10" s="89">
-        <f t="shared" ca="1" si="7"/>
         <v>-19.903388512330956</v>
       </c>
       <c r="N10" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>5.65</v>
       </c>
       <c r="O10" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>6.28</v>
       </c>
       <c r="P10" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>5.67</v>
       </c>
       <c r="Q10" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>7.13</v>
       </c>
       <c r="R10" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>6.47</v>
       </c>
       <c r="S10" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>6.37</v>
       </c>
       <c r="T10" s="89">
-        <f t="shared" ca="1" si="8"/>
         <v>-4.9453770516133506</v>
       </c>
       <c r="U10" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>1.17</v>
       </c>
       <c r="V10" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="W10" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.86</v>
       </c>
       <c r="X10" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>6.92</v>
       </c>
       <c r="Y10" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>5.36</v>
       </c>
       <c r="Z10" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="AA10" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="AB10" s="15"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="54">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
-        <v>4</v>
+      <c r="B11" s="54">
+        <v>2019</v>
       </c>
       <c r="C11" s="15">
-        <f>+C10+1</f>
         <v>226</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="54">
         <v>9</v>
       </c>
       <c r="E11" s="14">
-        <f t="shared" ca="1" si="1"/>
         <v>21.916074344891623</v>
       </c>
       <c r="F11" s="15">
-        <f t="shared" ca="1" si="4"/>
         <v>28.14</v>
       </c>
       <c r="G11" s="15">
         <v>5</v>
       </c>
       <c r="H11" s="94">
-        <f t="shared" ca="1" si="5"/>
         <v>-11.223925655108378</v>
       </c>
       <c r="I11" s="89">
-        <f t="shared" ca="1" si="6"/>
         <v>-10.838575434067343</v>
       </c>
       <c r="J11" s="15">
-        <f t="shared" ca="1" si="2"/>
         <v>19.815262287080252</v>
       </c>
       <c r="K11" s="14">
-        <f t="shared" ca="1" si="0"/>
         <v>15.148290177788503</v>
       </c>
       <c r="L11" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>4.7</v>
       </c>
       <c r="M11" s="89">
-        <f t="shared" ca="1" si="7"/>
         <v>-15.484737712919747</v>
       </c>
       <c r="N11" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>6.4</v>
       </c>
       <c r="O11" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>6.53</v>
       </c>
       <c r="P11" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>6.62</v>
       </c>
       <c r="Q11" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>6.36</v>
       </c>
       <c r="R11" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>3.38</v>
       </c>
       <c r="S11" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>6.01</v>
       </c>
       <c r="T11" s="89">
-        <f t="shared" ca="1" si="8"/>
         <v>-4.4017098222114956</v>
       </c>
       <c r="U11" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>0.88</v>
       </c>
       <c r="V11" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>1.94</v>
       </c>
       <c r="W11" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="X11" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>4.93</v>
       </c>
       <c r="Y11" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>4.2699999999999996</v>
       </c>
       <c r="Z11" s="89">
-        <f t="shared" ca="1" si="3"/>
         <v>1.65</v>
       </c>
       <c r="AA11" s="93">
-        <f t="shared" ca="1" si="3"/>
         <v>1.24</v>
       </c>
       <c r="AB11" s="15"/>

--- a/_data_helperfiles/preparingtables.xlsx
+++ b/_data_helperfiles/preparingtables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6420" windowWidth="28800" windowHeight="6480" tabRatio="927" firstSheet="10" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="6420" windowWidth="28800" windowHeight="6480" tabRatio="927" firstSheet="9" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="struct_and_colors_sf16" sheetId="47" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="258">
   <si>
     <t>2d</t>
   </si>
@@ -393,24 +393,9 @@
     <t>penc_vol</t>
   </si>
   <si>
-    <t>penc_uncertaincy</t>
-  </si>
-  <si>
     <t>5.03</t>
   </si>
   <si>
-    <t>calamity</t>
-  </si>
-  <si>
-    <t>prior</t>
-  </si>
-  <si>
-    <t>volatility</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
     <t>5.02</t>
   </si>
   <si>
@@ -435,18 +420,9 @@
     <t>persistency_volatility</t>
   </si>
   <si>
-    <t>persistency_uncertain</t>
-  </si>
-  <si>
     <t>continuation</t>
   </si>
   <si>
-    <t>expense inflation</t>
-  </si>
-  <si>
-    <t>expense level</t>
-  </si>
-  <si>
     <t>morbidity</t>
   </si>
   <si>
@@ -829,6 +805,12 @@
   </si>
   <si>
     <t>feb24c</t>
+  </si>
+  <si>
+    <t>penc_uncertainty</t>
+  </si>
+  <si>
+    <t>persistency_uncertainty</t>
   </si>
 </sst>
 </file>
@@ -1530,10 +1512,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>16</v>
@@ -1542,16 +1524,16 @@
         <v>70</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1576,10 +1558,10 @@
         <v>SKV</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1604,10 +1586,10 @@
         <v>KSKV</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1629,10 +1611,10 @@
         <v>operationeel</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1696,10 +1678,10 @@
         <v>markt</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1724,15 +1706,15 @@
         <v>leven</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
         <v>80</v>
@@ -1752,10 +1734,10 @@
         <v>schade</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H9" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1780,10 +1762,10 @@
         <v>zorg</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H10" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1805,10 +1787,10 @@
         <v>tegenpartijkrediet</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H11" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1831,10 +1813,10 @@
         <v>intangibles</v>
       </c>
       <c r="G12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1875,10 +1857,10 @@
         <v>m_rente</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H14" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1900,10 +1882,10 @@
         <v>m_aandelen</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H15" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1925,10 +1907,10 @@
         <v>m_vastgoed</v>
       </c>
       <c r="G16" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H16" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1950,10 +1932,10 @@
         <v>m_spread</v>
       </c>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1975,10 +1957,10 @@
         <v>m_valuta</v>
       </c>
       <c r="G18" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2000,10 +1982,10 @@
         <v>m_concentratie</v>
       </c>
       <c r="G19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H19" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2026,10 +2008,10 @@
         <v>m_illiquiditeit</v>
       </c>
       <c r="G20" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2070,10 +2052,10 @@
         <v>l_kortleven</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H22" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2095,10 +2077,10 @@
         <v>l_langleven</v>
       </c>
       <c r="G23" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H23" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2120,10 +2102,10 @@
         <v>l_ao</v>
       </c>
       <c r="G24" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H24" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2145,10 +2127,10 @@
         <v>l_verval</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H25" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2170,10 +2152,10 @@
         <v>l_kosten</v>
       </c>
       <c r="G26" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H26" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2195,10 +2177,10 @@
         <v>l_revisie</v>
       </c>
       <c r="G27" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H27" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2221,10 +2203,10 @@
         <v>l_CAT</v>
       </c>
       <c r="G28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H28" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2265,10 +2247,10 @@
         <v>s_premiereserve</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H30" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2290,10 +2272,10 @@
         <v>s_verval</v>
       </c>
       <c r="G31" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H31" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2316,10 +2298,10 @@
         <v>s_CAT</v>
       </c>
       <c r="G32" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H32" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2363,10 +2345,10 @@
         <v>z_alsleven</v>
       </c>
       <c r="G34" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H34" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2388,10 +2370,10 @@
         <v>z_CAT</v>
       </c>
       <c r="G35" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H35" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2413,10 +2395,10 @@
         <v>z_s_premiereserve</v>
       </c>
       <c r="G36" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H36" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2439,10 +2421,10 @@
         <v>z_s_verval</v>
       </c>
       <c r="G37" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H37" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2453,7 +2435,7 @@
         <v>106</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E38" s="70" t="str">
         <f t="shared" si="0"/>
@@ -2483,10 +2465,10 @@
         <v>z_a_kortleven</v>
       </c>
       <c r="G39" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H39" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2508,10 +2490,10 @@
         <v>z_a_langleven</v>
       </c>
       <c r="G40" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H40" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2533,10 +2515,10 @@
         <v>z_a_ao</v>
       </c>
       <c r="G41" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2558,10 +2540,10 @@
         <v>z_a_verval</v>
       </c>
       <c r="G42" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H42" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2583,10 +2565,10 @@
         <v>z_a_kosten</v>
       </c>
       <c r="G43" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H43" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2609,18 +2591,18 @@
         <v>z_a_revisie</v>
       </c>
       <c r="G44" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H44" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G45" s="1" t="str">
         <f>VLOOKUP(SUBSTITUTE(E45,"_other",""),$E$2:$G$44,3,FALSE)</f>
@@ -2634,10 +2616,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" ref="G46:G49" si="1">VLOOKUP(SUBSTITUTE(E46,"_other",""),$E$2:$G$44,3,FALSE)</f>
@@ -2651,10 +2633,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E47" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
@@ -2668,10 +2650,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E48" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
@@ -2685,10 +2667,10 @@
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E49" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
@@ -3647,7 +3629,7 @@
         <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -3741,7 +3723,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -3789,7 +3771,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -3837,7 +3819,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -3885,7 +3867,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -3908,7 +3890,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -3928,12 +3910,12 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -5074,7 +5056,7 @@
         <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -5174,7 +5156,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -5228,7 +5210,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -5282,7 +5264,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -5336,7 +5318,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -5390,7 +5372,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -5528,8 +5510,8 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5541,10 +5523,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>16</v>
@@ -5553,16 +5535,16 @@
         <v>70</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5581,10 +5563,10 @@
         <v>SCR</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5602,7 +5584,7 @@
         <v>BSCR</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H3" t="str">
         <f>VLOOKUP(C3,$D$2:$G$55,4,FALSE)</f>
@@ -5622,7 +5604,7 @@
         <v>operational</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H4" t="str">
         <f>VLOOKUP(C4,$D$2:$G$55,4,FALSE)</f>
@@ -5658,7 +5640,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -5671,10 +5653,10 @@
         <v>MBC</v>
       </c>
       <c r="F7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H7" t="str">
         <f>VLOOKUP(C7,$D$2:$G$55,4,FALSE)</f>
@@ -5683,7 +5665,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4">
@@ -5697,10 +5679,10 @@
         <v>insurance</v>
       </c>
       <c r="F8" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H8" t="str">
         <f>VLOOKUP(C8,$D$2:$G$55,4,FALSE)</f>
@@ -5709,10 +5691,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -5721,7 +5703,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
@@ -5734,10 +5716,10 @@
         <v>MC</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G10" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H10" t="str">
         <f>VLOOKUP(C10,$D$2:$G$55,4,FALSE)</f>
@@ -5746,7 +5728,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4">
@@ -5758,10 +5740,10 @@
         <v>basis</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G11" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H11" t="str">
         <f>VLOOKUP(C11,$D$2:$G$55,4,FALSE)</f>
@@ -5770,7 +5752,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" t="s">
@@ -5797,7 +5779,7 @@
         <v>market</v>
       </c>
       <c r="G13" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H13" t="str">
         <f>VLOOKUP(C13,$D$2:$G$55,4,FALSE)</f>
@@ -5806,7 +5788,7 @@
     </row>
     <row r="14" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>9</v>
@@ -5819,7 +5801,7 @@
         <v>counterpartydefault</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H14" t="str">
         <f>VLOOKUP(C14,$D$2:$G$55,4,FALSE)</f>
@@ -5841,7 +5823,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -5851,7 +5833,7 @@
         <v>equity</v>
       </c>
       <c r="G16" s="87" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" ref="H16:H26" si="1">VLOOKUP(C16,$D$2:$G$55,4,FALSE)</f>
@@ -5860,7 +5842,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -5870,7 +5852,7 @@
         <v>interest</v>
       </c>
       <c r="G17" s="85" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
@@ -5879,7 +5861,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -5889,7 +5871,7 @@
         <v>creditspread</v>
       </c>
       <c r="G18" s="85" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
@@ -5898,7 +5880,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -5908,7 +5890,7 @@
         <v>realestate</v>
       </c>
       <c r="G19" s="85" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
@@ -5917,7 +5899,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -5927,7 +5909,7 @@
         <v>inflation</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
@@ -5936,7 +5918,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -5946,7 +5928,7 @@
         <v>equity_impliedvol</v>
       </c>
       <c r="G21" s="86" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
@@ -5955,7 +5937,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -5965,7 +5947,7 @@
         <v>interest_impliedvol</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
@@ -5974,7 +5956,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -5984,7 +5966,7 @@
         <v>FX</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
@@ -5993,7 +5975,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -6003,7 +5985,7 @@
         <v>FX_impliedvol</v>
       </c>
       <c r="G24" s="88" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
@@ -6012,7 +5994,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6022,10 +6004,10 @@
         <v>type1</v>
       </c>
       <c r="F25" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G25" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
@@ -6034,7 +6016,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -6044,10 +6026,10 @@
         <v>type2</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
@@ -6056,10 +6038,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -6069,7 +6051,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -6083,7 +6065,7 @@
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="74" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" ref="H28:H50" si="2">VLOOKUP(C28,$D$2:$G$55,4,FALSE)</f>
@@ -6098,14 +6080,14 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>life</v>
       </c>
       <c r="G29" s="73" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="2"/>
@@ -6114,20 +6096,20 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>morbidity</v>
       </c>
       <c r="G30" s="78" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="2"/>
@@ -6149,7 +6131,7 @@
         <v>nonlife</v>
       </c>
       <c r="G31" s="77" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="2"/>
@@ -6158,7 +6140,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
@@ -6168,7 +6150,7 @@
         <v>expense_level</v>
       </c>
       <c r="G32" s="79" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="2"/>
@@ -6177,7 +6159,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -6187,7 +6169,7 @@
         <v>expense_inflation</v>
       </c>
       <c r="G33" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="2"/>
@@ -6196,7 +6178,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
@@ -6206,7 +6188,7 @@
         <v>continuation</v>
       </c>
       <c r="G34" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="2"/>
@@ -6215,17 +6197,17 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>257</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>persistency_uncertain</v>
+        <v>persistency_uncertainty</v>
       </c>
       <c r="G35" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="2"/>
@@ -6234,7 +6216,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
@@ -6244,7 +6226,7 @@
         <v>persistency_volatility</v>
       </c>
       <c r="G36" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="2"/>
@@ -6253,7 +6235,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
@@ -6263,7 +6245,7 @@
         <v>persistency_calamity</v>
       </c>
       <c r="G37" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="2"/>
@@ -6272,7 +6254,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
         <v>35</v>
@@ -6282,7 +6264,7 @@
         <v>premium_rerating</v>
       </c>
       <c r="G38" s="76" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="2"/>
@@ -6291,17 +6273,17 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
         <v>mortality_trend</v>
       </c>
       <c r="G39" s="81" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="2"/>
@@ -6310,17 +6292,17 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
         <v>mortality_level</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="2"/>
@@ -6329,17 +6311,17 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
         <v>mortality_vol</v>
       </c>
       <c r="G41" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="2"/>
@@ -6348,17 +6330,17 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
         <v>mortality_calamity</v>
       </c>
       <c r="G42" s="72" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="2"/>
@@ -6367,17 +6349,17 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
         <v>morb_uncertainty</v>
       </c>
       <c r="G43" s="75" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="2"/>
@@ -6386,17 +6368,17 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
         <v>morb_volatility</v>
       </c>
       <c r="G44" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="2"/>
@@ -6405,17 +6387,17 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
         <v>morb_prior</v>
       </c>
       <c r="G45" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="2"/>
@@ -6424,17 +6406,17 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
         <v>morb_calamity</v>
       </c>
       <c r="G46" s="82" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="2"/>
@@ -6443,17 +6425,17 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>256</v>
       </c>
       <c r="C47" t="s">
         <v>114</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>penc_uncertaincy</v>
+        <v>penc_uncertainty</v>
       </c>
       <c r="G47" s="83" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="2"/>
@@ -6472,7 +6454,7 @@
         <v>penc_vol</v>
       </c>
       <c r="G48" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="2"/>
@@ -6491,7 +6473,7 @@
         <v>penc_prior</v>
       </c>
       <c r="G49" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="2"/>
@@ -6510,7 +6492,7 @@
         <v>penc_cat</v>
       </c>
       <c r="G50" s="84" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="2"/>
@@ -6519,7 +6501,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G51" s="1" t="str">
         <f>VLOOKUP(SUBSTITUTE(E51,"_other",""),$E$2:$G$50,3,FALSE)</f>
@@ -6532,7 +6514,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="80" t="str">
@@ -6546,7 +6528,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G53" s="1" t="str">
         <f>VLOOKUP(SUBSTITUTE(E53,"_other",""),$E$2:$G$50,3,FALSE)</f>
@@ -6559,7 +6541,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G54" s="1" t="str">
         <f>VLOOKUP(SUBSTITUTE(E54,"_other",""),$E$2:$G$50,3,FALSE)</f>
@@ -6572,7 +6554,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G55" s="1" t="str">
         <f>VLOOKUP(SUBSTITUTE(E55,"_other",""),$E$2:$G$50,3,FALSE)</f>
@@ -6596,7 +6578,7 @@
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+      <selection activeCell="BB1" sqref="BB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6628,7 +6610,7 @@
     <col min="51" max="53" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="7" customFormat="1" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>19</v>
       </c>
@@ -6742,7 +6724,7 @@
         <v>continuation</v>
       </c>
       <c r="AL1" s="7" t="str">
-        <v>persistency_uncertain</v>
+        <v>persistency_uncertainty</v>
       </c>
       <c r="AM1" s="7" t="str">
         <v>persistency_volatility</v>
@@ -6778,7 +6760,7 @@
         <v>morb_calamity</v>
       </c>
       <c r="AX1" s="23" t="str">
-        <v>penc_uncertaincy</v>
+        <v>penc_uncertainty</v>
       </c>
       <c r="AY1" s="7" t="str">
         <v>penc_vol</v>
@@ -6987,7 +6969,7 @@
         <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -7192,7 +7174,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>2</v>
@@ -7270,7 +7252,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>2</v>
@@ -7348,7 +7330,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>2</v>
@@ -7426,7 +7408,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>2</v>
@@ -7504,7 +7486,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>2</v>
@@ -7542,7 +7524,7 @@
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7576,165 +7558,166 @@
     <col min="51" max="53" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB1" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD1" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO1" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP1" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ1" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR1" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS1" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AT1" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV1" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW1" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX1" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY1" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ1" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="BA1" s="7" t="s">
-        <v>115</v>
+    <row r="1" spans="1:53" s="7" customFormat="1" ht="92.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="str">
+        <f t="array" ref="A1:BA1">ex6_data!A1:BA1</f>
+        <v>id</v>
+      </c>
+      <c r="B1" s="7" t="str">
+        <v>comparewithid</v>
+      </c>
+      <c r="C1" s="7" t="str">
+        <v>time</v>
+      </c>
+      <c r="D1" s="7" t="str">
+        <v>ratio</v>
+      </c>
+      <c r="E1" s="23" t="str">
+        <v>SCR</v>
+      </c>
+      <c r="F1" s="23" t="str">
+        <v>BSCR</v>
+      </c>
+      <c r="G1" s="7" t="str">
+        <v>operational</v>
+      </c>
+      <c r="H1" s="44" t="str">
+        <v>Adjustment-LACDT</v>
+      </c>
+      <c r="I1" s="27" t="str">
+        <v>BSCR_div</v>
+      </c>
+      <c r="J1" s="7" t="str">
+        <v>MBC</v>
+      </c>
+      <c r="K1" s="7" t="str">
+        <v>insurance</v>
+      </c>
+      <c r="L1" s="27" t="str">
+        <v>MBC_div</v>
+      </c>
+      <c r="M1" s="7" t="str">
+        <v>MC</v>
+      </c>
+      <c r="N1" s="7" t="str">
+        <v>basis</v>
+      </c>
+      <c r="O1" s="27" t="str">
+        <v>MC_div</v>
+      </c>
+      <c r="P1" s="7" t="str">
+        <v>market</v>
+      </c>
+      <c r="Q1" s="7" t="str">
+        <v>counterpartydefault</v>
+      </c>
+      <c r="R1" s="27" t="str">
+        <v>market_div</v>
+      </c>
+      <c r="S1" s="7" t="str">
+        <v>equity</v>
+      </c>
+      <c r="T1" s="7" t="str">
+        <v>interest</v>
+      </c>
+      <c r="U1" s="7" t="str">
+        <v>creditspread</v>
+      </c>
+      <c r="V1" s="7" t="str">
+        <v>realestate</v>
+      </c>
+      <c r="W1" s="7" t="str">
+        <v>inflation</v>
+      </c>
+      <c r="X1" s="7" t="str">
+        <v>equity_impliedvol</v>
+      </c>
+      <c r="Y1" s="7" t="str">
+        <v>interest_impliedvol</v>
+      </c>
+      <c r="Z1" s="7" t="str">
+        <v>FX</v>
+      </c>
+      <c r="AA1" s="7" t="str">
+        <v>FX_impliedvol</v>
+      </c>
+      <c r="AB1" s="23" t="str">
+        <v>type1</v>
+      </c>
+      <c r="AC1" s="7" t="str">
+        <v>type2</v>
+      </c>
+      <c r="AD1" s="27" t="str">
+        <v>insurance_div</v>
+      </c>
+      <c r="AE1" s="7" t="str">
+        <v>business</v>
+      </c>
+      <c r="AF1" s="7" t="str">
+        <v>life</v>
+      </c>
+      <c r="AG1" s="7" t="str">
+        <v>morbidity</v>
+      </c>
+      <c r="AH1" s="7" t="str">
+        <v>nonlife</v>
+      </c>
+      <c r="AI1" s="23" t="str">
+        <v>expense_level</v>
+      </c>
+      <c r="AJ1" s="7" t="str">
+        <v>expense_inflation</v>
+      </c>
+      <c r="AK1" s="7" t="str">
+        <v>continuation</v>
+      </c>
+      <c r="AL1" s="7" t="str">
+        <v>persistency_uncertainty</v>
+      </c>
+      <c r="AM1" s="7" t="str">
+        <v>persistency_volatility</v>
+      </c>
+      <c r="AN1" s="7" t="str">
+        <v>persistency_calamity</v>
+      </c>
+      <c r="AO1" s="7" t="str">
+        <v>premium_rerating</v>
+      </c>
+      <c r="AP1" s="23" t="str">
+        <v>mortality_trend</v>
+      </c>
+      <c r="AQ1" s="7" t="str">
+        <v>mortality_level</v>
+      </c>
+      <c r="AR1" s="7" t="str">
+        <v>mortality_vol</v>
+      </c>
+      <c r="AS1" s="7" t="str">
+        <v>mortality_calamity</v>
+      </c>
+      <c r="AT1" s="23" t="str">
+        <v>morb_uncertainty</v>
+      </c>
+      <c r="AU1" s="7" t="str">
+        <v>morb_volatility</v>
+      </c>
+      <c r="AV1" s="7" t="str">
+        <v>morb_prior</v>
+      </c>
+      <c r="AW1" s="7" t="str">
+        <v>morb_calamity</v>
+      </c>
+      <c r="AX1" s="23" t="str">
+        <v>penc_uncertainty</v>
+      </c>
+      <c r="AY1" s="7" t="str">
+        <v>penc_vol</v>
+      </c>
+      <c r="AZ1" s="7" t="str">
+        <v>penc_prior</v>
+      </c>
+      <c r="BA1" s="7" t="str">
+        <v>penc_cat</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="26.25" x14ac:dyDescent="0.4">
@@ -8006,7 +7989,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -8014,7 +7997,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -8056,7 +8039,7 @@
         <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -8199,7 +8182,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -8222,7 +8205,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -8273,7 +8256,7 @@
   </sheetPr>
   <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -8317,10 +8300,10 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
@@ -8781,7 +8764,7 @@
         <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -8869,7 +8852,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8893,7 +8876,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -8935,7 +8918,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -8986,7 +8969,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -9029,12 +9012,12 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -9300,8 +9283,8 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10274,10 +10257,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>16</v>
@@ -10286,16 +10269,16 @@
         <v>70</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -10320,10 +10303,10 @@
         <v>SKV</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -10348,10 +10331,10 @@
         <v>KSKV</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -10373,10 +10356,10 @@
         <v>operationeel</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -10440,10 +10423,10 @@
         <v>markt</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -10468,10 +10451,10 @@
         <v>leven</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10493,10 +10476,10 @@
         <v>tegenpartijkrediet</v>
       </c>
       <c r="G9" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H9" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -10519,10 +10502,10 @@
         <v>intangibles</v>
       </c>
       <c r="G10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -10563,10 +10546,10 @@
         <v>m_rente</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -10588,10 +10571,10 @@
         <v>m_aandelen</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -10613,10 +10596,10 @@
         <v>m_vastgoed</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H14" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -10638,10 +10621,10 @@
         <v>m_spread</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H15" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -10663,10 +10646,10 @@
         <v>m_valuta</v>
       </c>
       <c r="G16" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H16" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -10688,10 +10671,10 @@
         <v>m_concentratie</v>
       </c>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -10714,10 +10697,10 @@
         <v>m_illiquiditeit</v>
       </c>
       <c r="G18" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -10758,10 +10741,10 @@
         <v>l_kortleven</v>
       </c>
       <c r="G20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -10783,10 +10766,10 @@
         <v>l_langleven</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H21" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -10808,10 +10791,10 @@
         <v>l_ao</v>
       </c>
       <c r="G22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H22" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -10833,10 +10816,10 @@
         <v>l_verval</v>
       </c>
       <c r="G23" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H23" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -10858,10 +10841,10 @@
         <v>l_kosten</v>
       </c>
       <c r="G24" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H24" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -10883,10 +10866,10 @@
         <v>l_revisie</v>
       </c>
       <c r="G25" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H25" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -10909,18 +10892,18 @@
         <v>l_CAT</v>
       </c>
       <c r="G26" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H26" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E27" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G27" t="str">
         <f>VLOOKUP(SUBSTITUTE(E27,"_other",""),$E$2:$G$26,3,FALSE)</f>
@@ -10934,10 +10917,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E28" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G28" t="str">
         <f>VLOOKUP(SUBSTITUTE(E28,"_other",""),$E$2:$G$26,3,FALSE)</f>
@@ -10978,7 +10961,7 @@
         <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -11075,7 +11058,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>69</v>
@@ -11117,7 +11100,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>69</v>
@@ -11201,7 +11184,7 @@
         <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -11298,7 +11281,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>2</v>
@@ -11340,7 +11323,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>2</v>
